--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653232.079314488</v>
+        <v>1650975.057405405</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>84.68852349718225</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64.59540826652881</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>117.6401963131067</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.85099796338674</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>67.3378365078426</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>174.0930945851967</v>
       </c>
       <c r="W13" t="n">
-        <v>4.038408879119383</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>47.36500934461748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30.82797978766554</v>
       </c>
       <c r="E19" t="n">
-        <v>41.45703344346424</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>52.23490948285965</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>87.22506181228485</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>52.23490948286009</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6086609333163</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396211</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.124658059890351</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>80.71262740536859</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0.716009457648306</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>98.17502158542626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249712</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.82764119510574</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.14314038966313</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164181</v>
+        <v>73.75339804477061</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
         <v>218.4926939877637</v>
@@ -3487,10 +3487,10 @@
         <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,10 +3904,10 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797631</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1816.955293888756</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>1447.992776948344</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D2" t="n">
-        <v>1089.727078341594</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E2" t="n">
-        <v>703.9388257433493</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="F2" t="n">
-        <v>292.9529209537417</v>
+        <v>690.6206530649958</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>272.6568449631827</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2402.143122208042</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4768,7 +4768,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>688.885551920185</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,49 +4881,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6966825353827</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5227,22 +5227,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1299.703104365055</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.12727740717</v>
+        <v>1010.285934328095</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.137726509152</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3451473656224</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551632</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,19 +5276,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5306,16 +5306,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5370,25 +5370,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C16" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783404</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413798</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
-        <v>572.0125403589376</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.0125403589376</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="17">
@@ -5519,7 +5519,7 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
         <v>2432.390822294613</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.5901955154779</v>
+        <v>590.4396319794992</v>
       </c>
       <c r="C19" t="n">
-        <v>283.6540125875711</v>
+        <v>421.5034490515924</v>
       </c>
       <c r="D19" t="n">
-        <v>283.6540125875712</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590081</v>
+        <v>992.8806759532691</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154779</v>
+        <v>772.0880968097389</v>
       </c>
     </row>
     <row r="20">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,16 +5832,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,22 +5859,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.8664332433625</v>
+        <v>393.5907674431235</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8664332433625</v>
+        <v>393.5907674431235</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8664332433625</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>391.8664332433625</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,10 +5914,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1868.237343061992</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1676.551458888819</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1454.784843458345</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1165.681976583988</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783404</v>
+        <v>910.9974883781014</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413798</v>
+        <v>621.5803183411408</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433625</v>
+        <v>393.5907674431235</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.8664332433625</v>
+        <v>393.5907674431235</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,49 +6069,49 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.3941514382108</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C25" t="n">
-        <v>557.3941514382108</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382108</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1618.588227453432</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1329.485360579076</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1074.800872373189</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>785.3837023362281</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>557.3941514382108</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>557.3941514382108</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6324,19 +6324,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,19 +6385,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1784.985102392162</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1784.985102392162</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1530.300614186275</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>1530.300614186275</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>1302.311063288258</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.5676213586404</v>
+        <v>873.2202818640279</v>
       </c>
       <c r="C31" t="n">
-        <v>392.5676213586404</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463046</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463046</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,7 +6619,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1857.176777634576</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1635.410162204102</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U31" t="n">
-        <v>1346.307295329745</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>1091.622807123858</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W31" t="n">
-        <v>802.2056370868975</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="X31" t="n">
-        <v>574.2160861888801</v>
+        <v>1094.73610288397</v>
       </c>
       <c r="Y31" t="n">
-        <v>574.2160861888801</v>
+        <v>873.9435237404404</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,25 +6701,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1732.058578925876</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2265.590483597801</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656583</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6768,22 +6768,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>334.8069429879237</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>167.1041063626427</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6871,19 +6871,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
@@ -6892,16 +6892,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208121</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858342</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6962,10 +6962,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>424.9348379611556</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="C37" t="n">
-        <v>424.9348379611556</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="D37" t="n">
-        <v>275.8851230825629</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="E37" t="n">
-        <v>129.0389540339127</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152492</v>
+        <v>346.7622353152493</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.3677264992667</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7117,28 +7117,28 @@
         <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280146</v>
+        <v>1890.21062612547</v>
       </c>
       <c r="S37" t="n">
-        <v>1875.945475280146</v>
+        <v>1699.591666486039</v>
       </c>
       <c r="T37" t="n">
-        <v>1655.245784383415</v>
+        <v>1478.891975589308</v>
       </c>
       <c r="U37" t="n">
-        <v>1367.209842042801</v>
+        <v>1190.856033248695</v>
       </c>
       <c r="V37" t="n">
-        <v>1113.592278370657</v>
+        <v>937.2384695765508</v>
       </c>
       <c r="W37" t="n">
-        <v>825.2420328674395</v>
+        <v>648.888224073333</v>
       </c>
       <c r="X37" t="n">
-        <v>825.2420328674395</v>
+        <v>421.9655977090587</v>
       </c>
       <c r="Y37" t="n">
-        <v>605.5163782576524</v>
+        <v>421.9655977090587</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215049</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C40" t="n">
         <v>667.0286178416711</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774086</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E40" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160441</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819754</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122056</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1070.832524924162</v>
+        <v>818.2062848686787</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7828,13 +7828,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9167,10 +9167,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>288.0478149561022</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>345.3140082169171</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>78.04454873863128</v>
       </c>
       <c r="W13" t="n">
-        <v>282.4845894574716</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973657044</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3446460444197</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>117.7874932305468</v>
       </c>
       <c r="E19" t="n">
-        <v>104.9769292031049</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,10 +23938,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7908987761686</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.707090857762481</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>94.19905316370908</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>74.94028834285294</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.490814958322</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>138.8363218708006</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.115970724289</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>91.59400374601562</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>73.92737371921504</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>111.2216523448626</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143258</v>
+        <v>95.29616512143259</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>14.12249933687125</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910789.5988852221</v>
+        <v>910789.5988852222</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>910789.5988852223</v>
+        <v>910789.5988852222</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651774</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="E2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="F2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="G2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="H2" t="n">
         <v>496352.233608729</v>
       </c>
-      <c r="H2" t="n">
-        <v>496352.2336087289</v>
-      </c>
       <c r="I2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087291</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087286</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496729.9631749267</v>
+        <v>496729.9631749266</v>
       </c>
       <c r="N2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696693</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.1050641496</v>
+        <v>36735.10506414965</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26427,7 +26427,7 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
         <v>18148.4923191899</v>
@@ -26436,28 +26436,28 @@
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811457</v>
+        <v>18496.05294811453</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,16 +26488,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955461</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.537969905</v>
+        <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.34124464</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446397</v>
+        <v>246943.3412446396</v>
       </c>
       <c r="E6" t="n">
-        <v>-345557.1909575814</v>
+        <v>-345624.3864478073</v>
       </c>
       <c r="F6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455997</v>
       </c>
       <c r="G6" t="n">
-        <v>381820.2230358254</v>
+        <v>381753.0275455994</v>
       </c>
       <c r="H6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455996</v>
       </c>
       <c r="I6" t="n">
-        <v>381820.2230358255</v>
+        <v>381753.0275455992</v>
       </c>
       <c r="J6" t="n">
-        <v>205397.0038432322</v>
+        <v>205329.8083530069</v>
       </c>
       <c r="K6" t="n">
-        <v>381820.2230358252</v>
+        <v>381753.0275455997</v>
       </c>
       <c r="L6" t="n">
-        <v>381820.223035825</v>
+        <v>381753.0275455995</v>
       </c>
       <c r="M6" t="n">
-        <v>251274.2745775883</v>
+        <v>251208.5900056272</v>
       </c>
       <c r="N6" t="n">
-        <v>342477.6767895163</v>
+        <v>342477.6767895158</v>
       </c>
       <c r="O6" t="n">
-        <v>379212.7818536654</v>
+        <v>379212.7818536653</v>
       </c>
       <c r="P6" t="n">
-        <v>379212.7818536656</v>
+        <v>379212.7818536657</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018701</v>
+        <v>45.91888133018707</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,37 +26966,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>329.0956465236127</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>259.3273644978283</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>98.80812404455108</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.7336553887081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>339.5382092338688</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405527</v>
+        <v>1.056255288405492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>840.3496503690137</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>800.9041226092493</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>46.63467190147172</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
         <v>320.8136274586036</v>
@@ -37476,7 +37476,7 @@
         <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
         <v>236.0133264335159</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425514</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
